--- a/Luban/Config/Datas/charactersAnimation.xlsx
+++ b/Luban/Config/Datas/charactersAnimation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFDC1B9-69D2-4CE1-BD6C-7B5A3DE06202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9B69A-6077-4F8B-9F26-14D188A620DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -127,6 +127,49 @@
   <si>
     <t>长剑动画</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longs_WalkBwd</t>
+  </si>
+  <si>
+    <t>Longs_RunBwd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk_L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_L</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk_R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longs_WalkLeft</t>
+  </si>
+  <si>
+    <t>Longs_WalkRight</t>
+  </si>
+  <si>
+    <t>Longs_RunLeft</t>
+  </si>
+  <si>
+    <t>Longs_RunRight</t>
   </si>
 </sst>
 </file>
@@ -534,7 +577,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -543,12 +586,13 @@
     <col min="2" max="3" width="10.19921875" customWidth="1"/>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.86328125" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.9296875" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" customWidth="1"/>
+    <col min="9" max="9" width="17.9296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="8.46484375" customWidth="1"/>
     <col min="14" max="14" width="9.796875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
@@ -574,12 +618,24 @@
       <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -668,12 +724,24 @@
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -826,6 +894,24 @@
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>

--- a/Luban/Config/Datas/charactersAnimation.xlsx
+++ b/Luban/Config/Datas/charactersAnimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9B69A-6077-4F8B-9F26-14D188A620DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04A646-DDD5-40AB-8233-E07E53E96167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="2093" windowWidth="23085" windowHeight="12142" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,6 @@
     </r>
   </si>
   <si>
-    <t>默认</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>idle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,6 +166,10 @@
   </si>
   <si>
     <t>Longs_RunRight</t>
+  </si>
+  <si>
+    <t>拳头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -610,31 +610,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -716,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -864,16 +864,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -883,34 +883,34 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
